--- a/TestData/Staging/Web_POS/Billing/customer_tagging_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Billing/customer_tagging_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\TESTDATA\STAGING\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -102,6 +102,9 @@
     <t>new_city</t>
   </si>
   <si>
+    <t>user_mobile</t>
+  </si>
+  <si>
     <t>TC_01</t>
   </si>
   <si>
@@ -409,12 +412,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -476,8 +484,25 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal>
+        <color indexed="64"/>
+      </diagonal>
+    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -490,39 +515,47 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -894,11 +927,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" topLeftCell="R1">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.67969" customWidth="1"/>
     <col min="2" max="2" width="19.27734" customWidth="1"/>
@@ -917,26 +950,28 @@
     <col min="20" max="20" width="23.20703" customWidth="1"/>
     <col min="21" max="22" width="15" customWidth="1"/>
     <col min="23" max="23" width="28.75" customWidth="1"/>
-    <col min="24" max="1025" width="12.67969" customWidth="1"/>
+    <col min="24" max="27" width="12.67969" customWidth="1"/>
+    <col min="28" max="28" width="18.5625" style="2" customWidth="1"/>
+    <col min="29" max="1025" width="12.67969" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -975,65 +1010,68 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="7" t="s">
         <v>26</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="D2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H2" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="J2" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
@@ -1041,112 +1079,118 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="11">
+        <v>37</v>
+      </c>
+      <c r="O2" s="13">
         <v>45386</v>
       </c>
-      <c r="P2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="11" t="s">
+      <c r="P2" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q2" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="AB2" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="13">
+        <v>45386</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="11">
-        <v>45386</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="3"/>
+      <c r="S3" s="4"/>
+      <c r="AB3" s="15">
+        <v>9874563216</v>
+      </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3">
         <v>123456</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H4" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1155,55 +1199,58 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="11">
+        <v>37</v>
+      </c>
+      <c r="O4" s="13">
         <v>45386</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="11" t="s">
+      <c r="P4" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q4" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="AB4" s="15">
+        <v>9874563216</v>
+      </c>
     </row>
     <row r="5" ht="34.6" customHeight="1">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H5" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="10" t="s">
         <v>51</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1212,61 +1259,64 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="11">
+        <v>37</v>
+      </c>
+      <c r="O5" s="13">
         <v>45386</v>
       </c>
-      <c r="P5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="11" t="s">
+      <c r="P5" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q5" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="S5" s="4"/>
       <c r="Y5">
         <v>411001</v>
       </c>
       <c r="Z5" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>4525235325</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="D6" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="F6" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H6" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>55</v>
+        <v>34</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -1275,55 +1325,58 @@
         <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="11">
+        <v>37</v>
+      </c>
+      <c r="O6" s="13">
         <v>45386</v>
       </c>
-      <c r="P6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="11" t="s">
+      <c r="P6" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q6" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="AB6" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="D7" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="F7" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H7" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>58</v>
+        <v>34</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -1332,55 +1385,58 @@
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="11">
+        <v>37</v>
+      </c>
+      <c r="O7" s="13">
         <v>45386</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="11" t="s">
+      <c r="P7" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q7" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S7" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="AB7" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="F8" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H8" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -1389,55 +1445,58 @@
         <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="11">
+        <v>37</v>
+      </c>
+      <c r="O8" s="13">
         <v>45386</v>
       </c>
-      <c r="P8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="11" t="s">
+      <c r="P8" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q8" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="AB8" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="D9" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="F9" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H9" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -1446,55 +1505,58 @@
         <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="11">
+        <v>37</v>
+      </c>
+      <c r="O9" s="13">
         <v>45386</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="11" t="s">
+      <c r="P9" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q9" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="AB9" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="D10" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="F10" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H10" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>64</v>
+        <v>34</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -1503,58 +1565,61 @@
         <v>2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="11">
+        <v>37</v>
+      </c>
+      <c r="O10" s="13">
         <v>45386</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="11" t="s">
+      <c r="P10" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q10" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="S10" s="4"/>
       <c r="W10">
         <v>9876543212</v>
       </c>
+      <c r="AB10" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="D11" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="F11" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>66</v>
+        <v>34</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -1563,55 +1628,58 @@
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="11">
+        <v>37</v>
+      </c>
+      <c r="O11" s="13">
         <v>45386</v>
       </c>
-      <c r="P11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="11" t="s">
+      <c r="P11" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q11" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="AB11" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="12" ht="28.5">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="D12" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="F12" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H12" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -1620,187 +1688,196 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="11">
+        <v>37</v>
+      </c>
+      <c r="O12" s="13">
         <v>45386</v>
       </c>
-      <c r="P12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" s="11" t="s">
+      <c r="P12" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q12" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="AB12" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="13" ht="25.5">
       <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="11">
+        <v>37</v>
+      </c>
+      <c r="O13" s="13">
         <v>45386</v>
       </c>
-      <c r="P13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="11" t="s">
+      <c r="P13" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q13" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="S13" s="16"/>
       <c r="T13" t="s">
-        <v>72</v>
-      </c>
-      <c r="V13" s="13" t="s">
         <v>73</v>
+      </c>
+      <c r="V13" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="Y13">
         <v>411001</v>
       </c>
+      <c r="AB13" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="14" ht="25.5">
       <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="13">
+        <v>45386</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="16"/>
+      <c r="T14" t="s">
+        <v>78</v>
+      </c>
+      <c r="U14" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" s="11">
-        <v>45386</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="12"/>
-      <c r="T14" t="s">
-        <v>77</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="Y14">
         <v>411001</v>
       </c>
+      <c r="AB14" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="D15" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="F15" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H15" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
@@ -1809,28 +1886,28 @@
         <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="11">
+        <v>37</v>
+      </c>
+      <c r="O15" s="13">
         <v>45386</v>
       </c>
-      <c r="P15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q15" s="11" t="s">
+      <c r="P15" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q15" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>80</v>
+        <v>40</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="T15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15">
         <v>9876543212</v>
@@ -1838,37 +1915,40 @@
       <c r="Y15">
         <v>411001</v>
       </c>
+      <c r="AB15" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="D16" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="F16" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H16" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -1877,26 +1957,26 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="11">
+        <v>37</v>
+      </c>
+      <c r="O16" s="13">
         <v>45386</v>
       </c>
-      <c r="P16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="11" t="s">
+      <c r="P16" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q16" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S16" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="S16" s="4"/>
       <c r="T16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W16">
         <v>9876543212</v>
@@ -1904,103 +1984,109 @@
       <c r="Y16">
         <v>411001</v>
       </c>
+      <c r="AB16" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="13">
+        <v>45386</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" t="s">
         <v>84</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O17" s="11">
-        <v>45386</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" s="3"/>
-      <c r="T17" t="s">
-        <v>83</v>
       </c>
       <c r="W17">
         <v>9876543212</v>
       </c>
       <c r="X17" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>9874563215</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="D18" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="F18" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H18" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -2009,64 +2095,67 @@
         <v>3</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" s="11">
+        <v>37</v>
+      </c>
+      <c r="O18" s="13">
         <v>45386</v>
       </c>
-      <c r="P18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q18" s="11" t="s">
+      <c r="P18" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q18" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S18" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="S18" s="4"/>
       <c r="T18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W18">
         <v>9876543212</v>
       </c>
       <c r="X18" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>9874563215</v>
       </c>
     </row>
     <row r="19" ht="25.5">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="D19" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="F19" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H19" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -2075,34 +2164,34 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="11">
+        <v>37</v>
+      </c>
+      <c r="O19" s="13">
         <v>45386</v>
       </c>
-      <c r="P19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" s="11" t="s">
+      <c r="P19" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q19" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>90</v>
+        <v>40</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="T19" t="s">
-        <v>91</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="V19" s="13" t="s">
-        <v>73</v>
+        <v>92</v>
+      </c>
+      <c r="U19" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="W19">
         <v>8149214985</v>
@@ -2110,37 +2199,40 @@
       <c r="Y19">
         <v>411001</v>
       </c>
+      <c r="AB19" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="D20" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="F20" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H20" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -2149,33 +2241,33 @@
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" s="11">
+        <v>37</v>
+      </c>
+      <c r="O20" s="13">
         <v>45386</v>
       </c>
-      <c r="P20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" s="11" t="s">
+      <c r="P20" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q20" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>94</v>
+        <v>40</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="T20" t="s">
-        <v>95</v>
-      </c>
-      <c r="U20" s="13">
+        <v>96</v>
+      </c>
+      <c r="U20" s="17">
         <v>123456789876543</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V20" s="17">
         <v>123456789876543</v>
       </c>
       <c r="W20">
@@ -2184,37 +2276,40 @@
       <c r="Y20">
         <v>411001</v>
       </c>
+      <c r="AB20" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="21" ht="25.5">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="D21" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="F21" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H21" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -2223,70 +2318,73 @@
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21" s="11">
+        <v>37</v>
+      </c>
+      <c r="O21" s="13">
         <v>45386</v>
       </c>
-      <c r="P21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q21" s="11" t="s">
+      <c r="P21" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q21" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="T21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U21" s="1"/>
-      <c r="V21" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y21" s="13">
+      <c r="V21" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y21" s="17">
         <v>791102</v>
       </c>
       <c r="AA21" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>9874563215</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="D22" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="F22" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H22" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -2295,28 +2393,28 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" s="11">
+        <v>37</v>
+      </c>
+      <c r="O22" s="13">
         <v>45386</v>
       </c>
-      <c r="P22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q22" s="11" t="s">
+      <c r="P22" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q22" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="T22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U22">
         <v>123456765445434</v>
@@ -2324,37 +2422,40 @@
       <c r="Y22">
         <v>411001</v>
       </c>
+      <c r="AB22" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="D23" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="F23" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H23" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
@@ -2363,119 +2464,125 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O23" s="11">
+        <v>37</v>
+      </c>
+      <c r="O23" s="13">
         <v>45386</v>
       </c>
-      <c r="P23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q23" s="11" t="s">
+      <c r="P23" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q23" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="Y23">
         <v>411001</v>
       </c>
+      <c r="AB23" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="D24" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H24" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L24" s="1">
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" s="11">
+        <v>37</v>
+      </c>
+      <c r="O24" s="13">
         <v>45386</v>
       </c>
-      <c r="P24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" s="11" t="s">
+      <c r="P24" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q24" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="Y24">
         <v>411001</v>
       </c>
+      <c r="AB24" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="25" ht="25.5">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G25" s="9" t="s">
+      <c r="D25" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="F25" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H25" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -2484,31 +2591,31 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" s="11">
+        <v>37</v>
+      </c>
+      <c r="O25" s="13">
         <v>45386</v>
       </c>
-      <c r="P25" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" s="11" t="s">
+      <c r="P25" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q25" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="T25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W25">
         <v>8149214985</v>
@@ -2516,37 +2623,40 @@
       <c r="Y25">
         <v>411001</v>
       </c>
+      <c r="AB25" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G26" s="9" t="s">
+      <c r="D26" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H26" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -2555,28 +2665,28 @@
         <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26" s="11">
+        <v>37</v>
+      </c>
+      <c r="O26" s="13">
         <v>45386</v>
       </c>
-      <c r="P26" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q26" s="11" t="s">
+      <c r="P26" s="13" t="s">
         <v>115</v>
       </c>
+      <c r="Q26" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="R26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="T26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U26">
         <v>123456765445434</v>
@@ -2585,42 +2695,45 @@
         <v>8149214985</v>
       </c>
       <c r="X26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y26" s="1">
         <v>791113</v>
       </c>
+      <c r="AB26" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="C27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="D27" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="F27" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H27" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
@@ -2629,66 +2742,69 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O27" s="11">
+        <v>37</v>
+      </c>
+      <c r="O27" s="13">
         <v>45386</v>
       </c>
-      <c r="P27" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q27" s="11" t="s">
+      <c r="P27" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q27" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="T27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y27">
         <v>411001</v>
       </c>
+      <c r="AB27" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="D28" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="F28" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H28" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -2697,60 +2813,63 @@
         <v>2</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28" s="11">
+        <v>37</v>
+      </c>
+      <c r="O28" s="13">
         <v>45386</v>
       </c>
-      <c r="P28" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" s="11" t="s">
+      <c r="P28" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q28" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="W28">
         <v>656765</v>
       </c>
+      <c r="AB28" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="D29" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="F29" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H29" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -2759,57 +2878,60 @@
         <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O29" s="11">
+        <v>37</v>
+      </c>
+      <c r="O29" s="13">
         <v>45386</v>
       </c>
-      <c r="P29" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q29" s="11" t="s">
+      <c r="P29" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q29" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>98</v>
+        <v>40</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB29" s="14">
+        <v>9874563215</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="8">
-        <v>123456</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="D30" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="F30" s="10">
+        <v>123456</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="H30" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="I30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
@@ -2818,427 +2940,463 @@
         <v>1</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O30" s="11">
+        <v>37</v>
+      </c>
+      <c r="O30" s="13">
         <v>45386</v>
       </c>
-      <c r="P30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q30" s="11" t="s">
+      <c r="P30" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="Q30" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="R30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S30" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="AB30" s="14">
+        <v>9874563215</v>
+      </c>
     </row>
     <row r="31" ht="14.25">
       <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
       <c r="I31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="S31" s="3"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="S31" s="4"/>
+      <c r="AB31" s="14"/>
     </row>
     <row r="32" ht="14.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
       <c r="I32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="S32" s="3"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="S32" s="4"/>
+      <c r="AB32" s="14"/>
     </row>
     <row r="33" ht="14.25">
       <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="I33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="S33" s="3"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="S33" s="4"/>
+      <c r="AB33" s="14"/>
     </row>
     <row r="34" ht="14.25">
       <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
       <c r="I34" s="1"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="S34" s="3"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="S34" s="4"/>
+      <c r="AB34" s="14"/>
     </row>
     <row r="35" ht="14.25">
       <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
       <c r="I35" s="1"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="S35" s="3"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="S35" s="4"/>
+      <c r="AB35" s="14"/>
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
       <c r="I36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="S36" s="3"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="S36" s="4"/>
+      <c r="AB36" s="14"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
       <c r="I37" s="1"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="S37" s="3"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="S37" s="4"/>
+      <c r="AB37" s="14"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
       <c r="I38" s="1"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="S38" s="3"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="S38" s="4"/>
+      <c r="AB38" s="14"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
       <c r="I39" s="1"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="S39" s="3"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="S39" s="4"/>
+      <c r="AB39" s="14"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="I40" s="1"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="S40" s="3"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="S40" s="4"/>
+      <c r="AB40" s="14"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
       <c r="I41" s="1"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="S41" s="3"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="S41" s="4"/>
+      <c r="AB41" s="14"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
       <c r="I42" s="1"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="S42" s="3"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="S42" s="4"/>
+      <c r="AB42" s="14"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
       <c r="I43" s="1"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="S43" s="3"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="S43" s="4"/>
+      <c r="AB43" s="14"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
       <c r="I44" s="1"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="S44" s="3"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="S44" s="4"/>
+      <c r="AB44" s="14"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
       <c r="I45" s="1"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="S45" s="3"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="S45" s="4"/>
+      <c r="AB45" s="14"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
       <c r="I46" s="1"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="S46" s="3"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="S46" s="4"/>
+      <c r="AB46" s="14"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
       <c r="I47" s="1"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="S47" s="3"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="S47" s="4"/>
+      <c r="AB47" s="14"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
       <c r="I48" s="1"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="S48" s="3"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="S48" s="4"/>
+      <c r="AB48" s="14"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
       <c r="I49" s="1"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="S49" s="3"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="S49" s="4"/>
+      <c r="AB49" s="14"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
       <c r="I50" s="1"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="S50" s="3"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="S50" s="4"/>
+      <c r="AB50" s="14"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
       <c r="I51" s="1"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="S51" s="3"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="S51" s="4"/>
+      <c r="AB51" s="14"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
       <c r="I52" s="1"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="S52" s="3"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="S52" s="4"/>
+      <c r="AB52" s="14"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
       <c r="I53" s="1"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="S53" s="3"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="S53" s="4"/>
+      <c r="AB53" s="14"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
       <c r="I54" s="1"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="S54" s="3"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="S54" s="4"/>
+      <c r="AB54" s="14"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
       <c r="I55" s="1"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="S55" s="3"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="S55" s="4"/>
+      <c r="AB55" s="14"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="10"/>
       <c r="I56" s="1"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="S56" s="3"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="S56" s="4"/>
+      <c r="AB56" s="14"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="10"/>
       <c r="I57" s="1"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="S57" s="3"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="S57" s="4"/>
+      <c r="AB57" s="14"/>
     </row>
     <row r="58" ht="14.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
       <c r="I58" s="1"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="S58" s="3"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="S58" s="4"/>
+      <c r="AB58" s="8"/>
     </row>
     <row r="59" ht="14.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
       <c r="I59" s="1"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="S59" s="3"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="S59" s="4"/>
+      <c r="AB59" s="8"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
       <c r="I60" s="1"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="S60" s="3"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="S60" s="4"/>
+      <c r="AB60" s="8"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
       <c r="I61" s="1"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="S61" s="3"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="S61" s="4"/>
+      <c r="AB61" s="8"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
       <c r="I62" s="1"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="S62" s="3"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="S62" s="4"/>
+      <c r="AB62" s="8"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
       <c r="I63" s="1"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="S63" s="3"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="S63" s="4"/>
+      <c r="AB63" s="8"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/TestData/Staging/Web_POS/Billing/customer_tagging_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Billing/customer_tagging_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -105,6 +105,9 @@
     <t>user_mobile</t>
   </si>
   <si>
+    <t>edited_group</t>
+  </si>
+  <si>
     <t>TC_01</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
   </si>
   <si>
     <t>Dummy</t>
+  </si>
+  <si>
+    <t>VIP</t>
   </si>
   <si>
     <t>TC_02</t>
@@ -412,17 +418,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -484,25 +485,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -515,47 +499,39 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -927,11 +903,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" topLeftCell="R1">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" topLeftCell="S21">
+      <selection activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12.67969" customWidth="1"/>
     <col min="2" max="2" width="19.27734" customWidth="1"/>
@@ -951,7 +927,7 @@
     <col min="21" max="22" width="15" customWidth="1"/>
     <col min="23" max="23" width="28.75" customWidth="1"/>
     <col min="24" max="27" width="12.67969" customWidth="1"/>
-    <col min="28" max="28" width="18.5625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="18.5625" customWidth="1"/>
     <col min="29" max="1025" width="12.67969" customWidth="1"/>
   </cols>
   <sheetData>
@@ -959,19 +935,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1010,68 +986,71 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="F2" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H2" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="J2" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
@@ -1079,178 +1058,187 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="13">
+        <v>38</v>
+      </c>
+      <c r="O2" s="11">
         <v>45386</v>
       </c>
-      <c r="P2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="13" t="s">
+      <c r="P2" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q2" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="4"/>
-      <c r="AB2" s="14">
+        <v>41</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="AB2" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="11">
+        <v>45386</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="S3" s="3"/>
+      <c r="AB3" s="1">
+        <v>9874563216</v>
+      </c>
+      <c r="AC3" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="13">
-        <v>45386</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="AB3" s="15">
-        <v>9874563216</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="J4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="11">
+        <v>45386</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="AB4" s="1">
+        <v>9874563216</v>
+      </c>
+      <c r="AC4" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="13">
-        <v>45386</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="4"/>
-      <c r="AB4" s="15">
-        <v>9874563216</v>
       </c>
     </row>
     <row r="5" ht="34.6" customHeight="1">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H5" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1259,64 +1247,67 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="13">
+        <v>38</v>
+      </c>
+      <c r="O5" s="11">
         <v>45386</v>
       </c>
-      <c r="P5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="13" t="s">
+      <c r="P5" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q5" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="S5" s="3"/>
       <c r="Y5">
         <v>411001</v>
       </c>
       <c r="Z5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB5" s="14">
+        <v>56</v>
+      </c>
+      <c r="AB5" s="7">
         <v>4525235325</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="D6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H6" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>56</v>
+        <v>35</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -1325,58 +1316,61 @@
         <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="13">
+        <v>38</v>
+      </c>
+      <c r="O6" s="11">
         <v>45386</v>
       </c>
-      <c r="P6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="13" t="s">
+      <c r="P6" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q6" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="AB6" s="14">
+        <v>41</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="AB6" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="F7" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H7" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -1385,58 +1379,61 @@
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="13">
+        <v>38</v>
+      </c>
+      <c r="O7" s="11">
         <v>45386</v>
       </c>
-      <c r="P7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="13" t="s">
+      <c r="P7" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q7" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="AB7" s="14">
+        <v>41</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="AB7" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="D8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="F8" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H8" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -1445,58 +1442,61 @@
         <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="13">
+        <v>38</v>
+      </c>
+      <c r="O8" s="11">
         <v>45386</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="13" t="s">
+      <c r="P8" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q8" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="AB8" s="14">
+        <v>41</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="AB8" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="D9" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="F9" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H9" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>63</v>
+        <v>35</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -1505,58 +1505,61 @@
         <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="13">
+        <v>38</v>
+      </c>
+      <c r="O9" s="11">
         <v>45386</v>
       </c>
-      <c r="P9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="13" t="s">
+      <c r="P9" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q9" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="4"/>
-      <c r="AB9" s="14">
+        <v>41</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="AB9" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="D10" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="F10" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H10" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>65</v>
+        <v>35</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -1565,61 +1568,64 @@
         <v>2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="13">
+        <v>38</v>
+      </c>
+      <c r="O10" s="11">
         <v>45386</v>
       </c>
-      <c r="P10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="13" t="s">
+      <c r="P10" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q10" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="S10" s="3"/>
       <c r="W10">
         <v>9876543212</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AB10" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="D11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H11" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -1628,58 +1634,61 @@
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="13">
+        <v>38</v>
+      </c>
+      <c r="O11" s="11">
         <v>45386</v>
       </c>
-      <c r="P11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="13" t="s">
+      <c r="P11" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q11" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="AB11" s="14">
+        <v>41</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="AB11" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="28.5">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="D12" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="F12" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H12" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>69</v>
+        <v>35</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -1688,226 +1697,235 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="13">
+        <v>38</v>
+      </c>
+      <c r="O12" s="11">
         <v>45386</v>
       </c>
-      <c r="P12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="13" t="s">
+      <c r="P12" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q12" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" s="4"/>
-      <c r="AB12" s="14">
+        <v>41</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="AB12" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="25.5">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="D13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="F13" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H13" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="13">
+        <v>38</v>
+      </c>
+      <c r="O13" s="11">
         <v>45386</v>
       </c>
-      <c r="P13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="13" t="s">
+      <c r="P13" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q13" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S13" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="S13" s="12"/>
       <c r="T13" t="s">
-        <v>73</v>
-      </c>
-      <c r="V13" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="Y13">
         <v>411001</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AB13" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="D14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="F14" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H14" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="11">
+        <v>45386</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="12"/>
+      <c r="T14" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" s="13">
-        <v>45386</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14" s="16"/>
-      <c r="T14" t="s">
-        <v>78</v>
-      </c>
-      <c r="U14" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="Y14">
         <v>411001</v>
       </c>
-      <c r="AB14" s="14">
+      <c r="AB14" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="N15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" s="13">
+        <v>38</v>
+      </c>
+      <c r="O15" s="11">
         <v>45386</v>
       </c>
-      <c r="P15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="13" t="s">
+      <c r="P15" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q15" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>81</v>
+        <v>41</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="T15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W15">
         <v>9876543212</v>
@@ -1915,40 +1933,43 @@
       <c r="Y15">
         <v>411001</v>
       </c>
-      <c r="AB15" s="14">
+      <c r="AB15" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="D16" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="F16" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H16" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -1957,26 +1978,26 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" s="13">
+        <v>38</v>
+      </c>
+      <c r="O16" s="11">
         <v>45386</v>
       </c>
-      <c r="P16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="13" t="s">
+      <c r="P16" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q16" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="S16" s="3"/>
       <c r="T16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W16">
         <v>9876543212</v>
@@ -1984,109 +2005,115 @@
       <c r="Y16">
         <v>411001</v>
       </c>
-      <c r="AB16" s="14">
+      <c r="AB16" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="D17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="F17" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H17" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="11">
+        <v>45386</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" t="s">
         <v>86</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="13">
-        <v>45386</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="4"/>
-      <c r="T17" t="s">
-        <v>84</v>
       </c>
       <c r="W17">
         <v>9876543212</v>
       </c>
       <c r="X17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB17" s="14">
+        <v>86</v>
+      </c>
+      <c r="AB17" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="D18" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="F18" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H18" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -2095,67 +2122,70 @@
         <v>3</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18" s="13">
+        <v>38</v>
+      </c>
+      <c r="O18" s="11">
         <v>45386</v>
       </c>
-      <c r="P18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q18" s="13" t="s">
+      <c r="P18" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q18" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="S18" s="3"/>
       <c r="T18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W18">
         <v>9876543212</v>
       </c>
       <c r="X18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB18" s="14">
+        <v>75</v>
+      </c>
+      <c r="AB18" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="D19" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="F19" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H19" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -2164,34 +2194,34 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" s="13">
+        <v>38</v>
+      </c>
+      <c r="O19" s="11">
         <v>45386</v>
       </c>
-      <c r="P19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q19" s="13" t="s">
+      <c r="P19" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q19" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="16" t="s">
-        <v>91</v>
+        <v>41</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="T19" t="s">
-        <v>92</v>
-      </c>
-      <c r="U19" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="V19" s="17" t="s">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="W19">
         <v>8149214985</v>
@@ -2199,40 +2229,43 @@
       <c r="Y19">
         <v>411001</v>
       </c>
-      <c r="AB19" s="14">
+      <c r="AB19" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="D20" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="F20" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H20" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -2241,33 +2274,33 @@
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O20" s="13">
+        <v>38</v>
+      </c>
+      <c r="O20" s="11">
         <v>45386</v>
       </c>
-      <c r="P20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="13" t="s">
+      <c r="P20" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q20" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S20" s="16" t="s">
-        <v>95</v>
+        <v>41</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="T20" t="s">
-        <v>96</v>
-      </c>
-      <c r="U20" s="17">
+        <v>98</v>
+      </c>
+      <c r="U20" s="13">
         <v>123456789876543</v>
       </c>
-      <c r="V20" s="17">
+      <c r="V20" s="13">
         <v>123456789876543</v>
       </c>
       <c r="W20">
@@ -2276,40 +2309,43 @@
       <c r="Y20">
         <v>411001</v>
       </c>
-      <c r="AB20" s="14">
+      <c r="AB20" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="D21" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="F21" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H21" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -2318,73 +2354,76 @@
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" s="13">
+        <v>38</v>
+      </c>
+      <c r="O21" s="11">
         <v>45386</v>
       </c>
-      <c r="P21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="13" t="s">
+      <c r="P21" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q21" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="T21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U21" s="1"/>
-      <c r="V21" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y21" s="17">
+      <c r="V21" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y21" s="13">
         <v>791102</v>
       </c>
       <c r="AA21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB21" s="14">
+        <v>104</v>
+      </c>
+      <c r="AB21" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="D22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="F22" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H22" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
@@ -2393,28 +2432,28 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" s="13">
+        <v>38</v>
+      </c>
+      <c r="O22" s="11">
         <v>45386</v>
       </c>
-      <c r="P22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q22" s="13" t="s">
+      <c r="P22" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q22" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="T22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="U22">
         <v>123456765445434</v>
@@ -2422,40 +2461,43 @@
       <c r="Y22">
         <v>411001</v>
       </c>
-      <c r="AB22" s="14">
+      <c r="AB22" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="D23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="F23" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H23" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
@@ -2464,125 +2506,131 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" s="13">
+        <v>38</v>
+      </c>
+      <c r="O23" s="11">
         <v>45386</v>
       </c>
-      <c r="P23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="13" t="s">
+      <c r="P23" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q23" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="Y23">
         <v>411001</v>
       </c>
-      <c r="AB23" s="14">
+      <c r="AB23" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="D24" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="F24" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H24" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L24" s="1">
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" s="13">
+        <v>38</v>
+      </c>
+      <c r="O24" s="11">
         <v>45386</v>
       </c>
-      <c r="P24" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q24" s="13" t="s">
+      <c r="P24" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q24" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="Y24">
         <v>411001</v>
       </c>
-      <c r="AB24" s="14">
+      <c r="AB24" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="25.5">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G25" s="11" t="s">
+      <c r="D25" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="F25" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H25" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -2591,31 +2639,31 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" s="13">
+        <v>38</v>
+      </c>
+      <c r="O25" s="11">
         <v>45386</v>
       </c>
-      <c r="P25" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q25" s="13" t="s">
+      <c r="P25" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q25" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="T25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W25">
         <v>8149214985</v>
@@ -2623,40 +2671,43 @@
       <c r="Y25">
         <v>411001</v>
       </c>
-      <c r="AB25" s="14">
+      <c r="AB25" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="D26" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="F26" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H26" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -2665,28 +2716,28 @@
         <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" s="13">
+        <v>38</v>
+      </c>
+      <c r="O26" s="11">
         <v>45386</v>
       </c>
-      <c r="P26" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q26" s="13" t="s">
-        <v>116</v>
+      <c r="P26" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="T26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="U26">
         <v>123456765445434</v>
@@ -2695,45 +2746,48 @@
         <v>8149214985</v>
       </c>
       <c r="X26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y26" s="1">
         <v>791113</v>
       </c>
-      <c r="AB26" s="14">
+      <c r="AB26" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G27" s="11" t="s">
+      <c r="D27" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="F27" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H27" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
@@ -2742,69 +2796,72 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" s="13">
+        <v>38</v>
+      </c>
+      <c r="O27" s="11">
         <v>45386</v>
       </c>
-      <c r="P27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q27" s="13" t="s">
+      <c r="P27" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q27" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="T27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y27">
         <v>411001</v>
       </c>
-      <c r="AB27" s="14">
+      <c r="AB27" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G28" s="11" t="s">
+      <c r="D28" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="F28" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H28" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -2813,63 +2870,66 @@
         <v>2</v>
       </c>
       <c r="M28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O28" s="13">
+        <v>38</v>
+      </c>
+      <c r="O28" s="11">
         <v>45386</v>
       </c>
-      <c r="P28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q28" s="13" t="s">
+      <c r="P28" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q28" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="W28">
         <v>656765</v>
       </c>
-      <c r="AB28" s="14">
+      <c r="AB28" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G29" s="11" t="s">
+      <c r="D29" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="F29" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H29" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -2878,60 +2938,63 @@
         <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O29" s="13">
+        <v>38</v>
+      </c>
+      <c r="O29" s="11">
         <v>45386</v>
       </c>
-      <c r="P29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q29" s="13" t="s">
+      <c r="P29" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q29" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB29" s="14">
+        <v>41</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB29" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="C30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="10">
-        <v>123456</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="D30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="F30" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="H30" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
@@ -2940,463 +3003,466 @@
         <v>1</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O30" s="13">
+        <v>38</v>
+      </c>
+      <c r="O30" s="11">
         <v>45386</v>
       </c>
-      <c r="P30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q30" s="13" t="s">
+      <c r="P30" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="Q30" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="R30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S30" s="4"/>
-      <c r="AB30" s="14">
+        <v>41</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="AB30" s="7">
         <v>9874563215</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="B31" s="1"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
       <c r="I31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="S31" s="4"/>
-      <c r="AB31" s="14"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="S31" s="3"/>
+      <c r="AB31" s="7"/>
     </row>
     <row r="32" ht="14.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
       <c r="I32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="S32" s="4"/>
-      <c r="AB32" s="14"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="S32" s="3"/>
+      <c r="AB32" s="7"/>
     </row>
     <row r="33" ht="14.25">
       <c r="B33" s="1"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
       <c r="I33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="S33" s="4"/>
-      <c r="AB33" s="14"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="S33" s="3"/>
+      <c r="AB33" s="7"/>
     </row>
     <row r="34" ht="14.25">
       <c r="B34" s="1"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
       <c r="I34" s="1"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="S34" s="4"/>
-      <c r="AB34" s="14"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="S34" s="3"/>
+      <c r="AB34" s="7"/>
     </row>
     <row r="35" ht="14.25">
       <c r="B35" s="1"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
       <c r="I35" s="1"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="S35" s="4"/>
-      <c r="AB35" s="14"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="S35" s="3"/>
+      <c r="AB35" s="7"/>
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="1"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
       <c r="I36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="S36" s="4"/>
-      <c r="AB36" s="14"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="S36" s="3"/>
+      <c r="AB36" s="7"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
       <c r="I37" s="1"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="S37" s="4"/>
-      <c r="AB37" s="14"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="S37" s="3"/>
+      <c r="AB37" s="7"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
       <c r="I38" s="1"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="S38" s="4"/>
-      <c r="AB38" s="14"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="S38" s="3"/>
+      <c r="AB38" s="7"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
       <c r="I39" s="1"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="S39" s="4"/>
-      <c r="AB39" s="14"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="S39" s="3"/>
+      <c r="AB39" s="7"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
       <c r="I40" s="1"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="S40" s="4"/>
-      <c r="AB40" s="14"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="S40" s="3"/>
+      <c r="AB40" s="7"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
       <c r="I41" s="1"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="S41" s="4"/>
-      <c r="AB41" s="14"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="S41" s="3"/>
+      <c r="AB41" s="7"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
       <c r="I42" s="1"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="S42" s="4"/>
-      <c r="AB42" s="14"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="S42" s="3"/>
+      <c r="AB42" s="7"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
       <c r="I43" s="1"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="S43" s="4"/>
-      <c r="AB43" s="14"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="S43" s="3"/>
+      <c r="AB43" s="7"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="10"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
       <c r="I44" s="1"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="S44" s="4"/>
-      <c r="AB44" s="14"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="S44" s="3"/>
+      <c r="AB44" s="7"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
       <c r="I45" s="1"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="S45" s="4"/>
-      <c r="AB45" s="14"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="S45" s="3"/>
+      <c r="AB45" s="7"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="10"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
       <c r="I46" s="1"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="S46" s="4"/>
-      <c r="AB46" s="14"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="S46" s="3"/>
+      <c r="AB46" s="7"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="10"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
       <c r="I47" s="1"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="S47" s="4"/>
-      <c r="AB47" s="14"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="S47" s="3"/>
+      <c r="AB47" s="7"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="10"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
       <c r="I48" s="1"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="S48" s="4"/>
-      <c r="AB48" s="14"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="S48" s="3"/>
+      <c r="AB48" s="7"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
       <c r="I49" s="1"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="S49" s="4"/>
-      <c r="AB49" s="14"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="S49" s="3"/>
+      <c r="AB49" s="7"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
       <c r="I50" s="1"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="S50" s="4"/>
-      <c r="AB50" s="14"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="S50" s="3"/>
+      <c r="AB50" s="7"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
       <c r="I51" s="1"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="S51" s="4"/>
-      <c r="AB51" s="14"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="S51" s="3"/>
+      <c r="AB51" s="7"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="10"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8"/>
       <c r="I52" s="1"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="S52" s="4"/>
-      <c r="AB52" s="14"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="S52" s="3"/>
+      <c r="AB52" s="7"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="10"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
       <c r="I53" s="1"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="S53" s="4"/>
-      <c r="AB53" s="14"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="S53" s="3"/>
+      <c r="AB53" s="7"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="10"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="8"/>
       <c r="I54" s="1"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="S54" s="4"/>
-      <c r="AB54" s="14"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="S54" s="3"/>
+      <c r="AB54" s="7"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="10"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
       <c r="I55" s="1"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="S55" s="4"/>
-      <c r="AB55" s="14"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="S55" s="3"/>
+      <c r="AB55" s="7"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="10"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8"/>
       <c r="I56" s="1"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="S56" s="4"/>
-      <c r="AB56" s="14"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="S56" s="3"/>
+      <c r="AB56" s="7"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="10"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="8"/>
       <c r="I57" s="1"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="S57" s="4"/>
-      <c r="AB57" s="14"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="S57" s="3"/>
+      <c r="AB57" s="7"/>
     </row>
     <row r="58" ht="14.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
       <c r="I58" s="1"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="S58" s="4"/>
-      <c r="AB58" s="8"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="S58" s="3"/>
+      <c r="AB58" s="2"/>
     </row>
     <row r="59" ht="14.25">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
       <c r="I59" s="1"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="S59" s="4"/>
-      <c r="AB59" s="8"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="S59" s="3"/>
+      <c r="AB59" s="2"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
       <c r="I60" s="1"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="S60" s="4"/>
-      <c r="AB60" s="8"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="S60" s="3"/>
+      <c r="AB60" s="2"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
       <c r="I61" s="1"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="S61" s="4"/>
-      <c r="AB61" s="8"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="S61" s="3"/>
+      <c r="AB61" s="2"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
       <c r="I62" s="1"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="S62" s="4"/>
-      <c r="AB62" s="8"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="S62" s="3"/>
+      <c r="AB62" s="2"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
       <c r="I63" s="1"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="S63" s="4"/>
-      <c r="AB63" s="8"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="S63" s="3"/>
+      <c r="AB63" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
